--- a/Stat reports/Reports/Templates/12-ф (прибыль).xlsx
+++ b/Stat reports/Reports/Templates/12-ф (прибыль).xlsx
@@ -3,45 +3,39 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA2B737-F1BA-4A98-A972-E6653A3BC6B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
     <sheet name="Раздел 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
-    <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
-  </si>
-  <si>
-    <t>КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
-  </si>
-  <si>
-    <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
-  </si>
-  <si>
-    <t>Представляют респонденты</t>
-  </si>
-  <si>
-    <t>Срок представления</t>
-  </si>
-  <si>
-    <t>12-ф (прибыль)</t>
-  </si>
-  <si>
-    <t>юридические лица, обособленные подразделения юридических лиц
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представляют респонденты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок представления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-ф (прибыль)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">юридические лица, обособленные подразделения юридических лиц
 в соответствии с Указаниями по заполнению настоящей формы
 в виде электронного документа Главному статистическому
 управлению города Минска; отделу статистики в районе
@@ -52,223 +46,224 @@
 управление области)</t>
   </si>
   <si>
-    <t>25-го числа после отчетного периода, за
+    <t xml:space="preserve">25-го числа после отчетного периода, за
 январь-декабрь - 25 января, 12 апреля</t>
   </si>
   <si>
-    <t>Код формы
+    <t xml:space="preserve">Код формы
 по ОКУД</t>
   </si>
   <si>
-    <t>0631001</t>
-  </si>
-  <si>
-    <t>Месячная</t>
-  </si>
-  <si>
-    <t>Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
+    <t xml:space="preserve">0631001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Месячная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
 ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Полное наименование обособленного подразделения юридического лица: СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ N 55
+    <t xml:space="preserve">Полное наименование обособленного подразделения юридического лица: СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ N 55
 ОТКРЫТОГО АКЦИОНЕРНОГО ОБЩЕСТВА "СТРОЙТРЕСТ N 3 ОРДЕНА ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Местоположение: 223610, МИНСКАЯ ОБЛАСТЬ, Слуцкий, Слуцк, УЛ. ПЛИЕВА, 13</t>
-  </si>
-  <si>
-    <t>Электронный адрес: su-55_sps@mail.belpak.by, su55@str3.by</t>
-  </si>
-  <si>
-    <t>Регистрационный номер в статистическом регистре (ОКПО)</t>
-  </si>
-  <si>
-    <t>Учетный номер плательщика (УНП)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>012774946002</t>
-  </si>
-  <si>
-    <t>600155380</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>процентов по кредиту, займу</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>в том числе на погашение: основного долга</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Направлено средств на погашение кредитов банков и займов</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>из них на сельское хозяйство</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Средства, полученные из бюджета на покрытие убытков, в связи с государственным
+    <t xml:space="preserve">Местоположение: 223610, МИНСКАЯ ОБЛАСТЬ, Слуцкий, Слуцк, УЛ. ПЛИЕВА, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электронный адрес: su-55_sps@mail.belpak.by, su55@str3.by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрационный номер в статистическом регистре (ОКПО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учетный номер плательщика (УНП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012774946002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600155380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">процентов по кредиту, займу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе на погашение: основного долга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направлено средств на погашение кредитов банков и займов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них на сельское хозяйство</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средства, полученные из бюджета на покрытие убытков, в связи с государственным
 регулированием цен и тарифов, на возмещение текущих затрат</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Чистая прибыль, убыток (-) (строка 22 плюс строка 23, минус строка 24, плюс
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чистая прибыль, убыток (-) (строка 22 плюс строка 23, минус строка 24, плюс
 строки 25 и 26, минус строка 27)</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Прочие налоги и сборы, платежи, исчисляемые из прибыли (дохода)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Изменение отложенных налоговых обязательств</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Изменение отложенных налоговых активов</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Налог на прибыль</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Прибыль, убыток (-) от инвестиционной и финансовой деятельности</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Прибыль, убыток (-) от текущей деятельности</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Прибыль, убыток (-) от реализации продукции, товаров, работ, услуг (строка 01
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прочие налоги и сборы, платежи, исчисляемые из прибыли (дохода)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменение отложенных налоговых обязательств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменение отложенных налоговых активов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Налог на прибыль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прибыль, убыток (-) от инвестиционной и финансовой деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прибыль, убыток (-) от текущей деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прибыль, убыток (-) от реализации продукции, товаров, работ, услуг (строка 01
 минус строки 15, 16, 18)</t>
   </si>
   <si>
-    <t>Себестоимость реализованной продукции, товаров, работ, услуг</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Прочие налоги и сборы, исчисляемые из выручки от реализации продукции, товаров,
+    <t xml:space="preserve">Себестоимость реализованной продукции, товаров, работ, услуг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прочие налоги и сборы, исчисляемые из выручки от реализации продукции, товаров,
 работ, услуг</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Начисленный налог на добавленную стоимость, исчисляемый из выручки от реализации
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начисленный налог на добавленную стоимость, исчисляемый из выручки от реализации
 продукции, товаров, работ, услуг</t>
   </si>
   <si>
-    <t>Выручка от реализации продукции, товаров, работ, услуг</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>За
+    <t xml:space="preserve">Выручка от реализации продукции, товаров, работ, услуг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За
 отчетный
 период</t>
   </si>
   <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Наименование показателя</t>
-  </si>
-  <si>
-    <t>Раздел 1</t>
-  </si>
-  <si>
-    <t>ФИНАНСОВЫЕ РЕЗУЛЬТАТЫ РАБОТЫ ОРГАНИЗАЦИИ</t>
+    <t xml:space="preserve">Код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование показателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИНАНСОВЫЕ РЕЗУЛЬТАТЫ РАБОТЫ ОРГАНИЗАЦИИ</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 1  </t>
   </si>
   <si>
-    <t>тысяч рублей</t>
-  </si>
-  <si>
-    <t>За
+    <t xml:space="preserve">тысяч рублей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За
 соответствующий
 период
 прошлого
 года</t>
   </si>
   <si>
-    <t>Лицо, ответственное за составление и представление
+    <t xml:space="preserve">Лицо, ответственное за составление и представление
 первичных статистических данных</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>(должность)</t>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t>(инициалы, фамилия)</t>
-  </si>
-  <si>
-    <t>(фамилия, собственное имя, отчество контактного
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(должность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(подпись)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(инициалы, фамилия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
   <si>
-    <t>(дата составления государственной
+    <t xml:space="preserve">(дата составления государственной
 статистической отчетности)</t>
   </si>
   <si>
-    <t>Отчет о финансовых результатах  за</t>
+    <t xml:space="preserve">Отчет о финансовых результатах  за</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,11 +538,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -849,8 +844,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12:L13"/>
@@ -1155,8 +1150,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E32" sqref="E32:J33"/>
